--- a/Documents/New Microsoft Excel Worksheet.xlsx
+++ b/Documents/New Microsoft Excel Worksheet.xlsx
@@ -8,92 +8,154 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING_LANGUAGE\Python_Tutorial\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA73FBE-E3F3-4CBF-844F-1F0573DC29ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B089CA5-CA69-4A05-9493-72213D6EC544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>dạng</t>
-  </si>
-  <si>
-    <t>cách viết</t>
-  </si>
-  <si>
-    <t>ví dụ</t>
-  </si>
-  <si>
-    <t>thập phân</t>
-  </si>
-  <si>
-    <t>Dùng các số từ 0 đến 9 để biểu diễn.</t>
-  </si>
-  <si>
-    <t>Không thể viết số bắt đầu từ số 0 ngoại trừ chính số 0</t>
-  </si>
-  <si>
-    <t>nhị phân</t>
-  </si>
-  <si>
-    <t>Dùng 0 và 1 để biểu diễn số.</t>
-  </si>
-  <si>
-    <t>0b1111</t>
-  </si>
-  <si>
-    <t>-0b1111</t>
-  </si>
-  <si>
-    <t>bát phân</t>
-  </si>
-  <si>
-    <t>Dùng chữ số từ 0 đến 7 để biểu diễn số.</t>
-  </si>
-  <si>
-    <t>0o100</t>
-  </si>
-  <si>
-    <t>-0o100</t>
-  </si>
-  <si>
-    <t>thập lục phân</t>
-  </si>
-  <si>
-    <t>Dùng chữ số từ 0 đến 9 để biểu diễn số.</t>
-  </si>
-  <si>
-    <t>0x100</t>
-  </si>
-  <si>
-    <t>-0x100</t>
-  </si>
-  <si>
-    <t>Có thể thêm dâú + hoặc - vào đầu số.</t>
-  </si>
-  <si>
-    <t>Viết số bắt đầu bằng ký tự 0b.</t>
-  </si>
-  <si>
-    <t>Có thể thêm dâú + hoặc - vào đầu số</t>
-  </si>
-  <si>
-    <t>Viết số bắt đầu bằng ký tự 0o.</t>
-  </si>
-  <si>
-    <t>Viết số bắt đầu bằng ký tự 0x.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>Toán tử</t>
+  </si>
+  <si>
+    <t>Ý nghĩa</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>(expressions...),</t>
+  </si>
+  <si>
+    <t>[expressions...],</t>
+  </si>
+  <si>
+    <t>{key: value...},</t>
+  </si>
+  <si>
+    <t>{expressions...}</t>
+  </si>
+  <si>
+    <t>Hiển thị tuple, list, danh sách, từ điển</t>
+  </si>
+  <si>
+    <t>x[index], x[index:index],</t>
+  </si>
+  <si>
+    <t>x(arguments...), x.attribute</t>
+  </si>
+  <si>
+    <t>Đăng ký, cắt, gọi, tham chiếu thuộc tính</t>
+  </si>
+  <si>
+    <t>await x</t>
+  </si>
+  <si>
+    <t>Biểu thức await</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Lũy thừa</t>
+  </si>
+  <si>
+    <t>+x, -x, ~x</t>
+  </si>
+  <si>
+    <t>Giữ dấu, Đổi dấu,bit NOT</t>
+  </si>
+  <si>
+    <t>*, @, /, //, %</t>
+  </si>
+  <si>
+    <t>Nhân, matrix, chia, chia làm tròn và chia lấy dư</t>
+  </si>
+  <si>
+    <t>+, -</t>
+  </si>
+  <si>
+    <t>Cộng trừ</t>
+  </si>
+  <si>
+    <t>&lt;&lt;, &gt;&gt;</t>
+  </si>
+  <si>
+    <t>Phép toán dịch bit</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>bit AND</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>bit XOR</t>
+  </si>
+  <si>
+    <t>bit OR</t>
+  </si>
+  <si>
+    <t>in, not in, is, is not,</t>
+  </si>
+  <si>
+    <t>&lt;, &lt;=, &gt;, &gt;=, !=, ==</t>
+  </si>
+  <si>
+    <t>So sánh</t>
+  </si>
+  <si>
+    <t>not x</t>
+  </si>
+  <si>
+    <t>Boolean NOT</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>Boolean AND</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>Boolean OR</t>
+  </si>
+  <si>
+    <t>if -- else</t>
+  </si>
+  <si>
+    <t>Biểu thức điều kiện</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>Biểu thức Lambda</t>
   </si>
 </sst>
 </file>
@@ -414,133 +476,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C23" sqref="A1:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" style="1"/>
-    <col min="2" max="2" width="44.85546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="17.140625" style="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="17.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
+      <c r="A8" s="1">
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
       <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
